--- a/documentation/04_テスト/01_単体テスト/Frontend/テストケース番号作成方法.xlsx
+++ b/documentation/04_テスト/01_単体テスト/Frontend/テストケース番号作成方法.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>01　-　管理者</t>
   </si>
   <si>
-    <t>01　-　利用者</t>
+    <t>02　-　利用者</t>
+  </si>
+  <si>
+    <t>03　-　一般</t>
   </si>
   <si>
     <t>001　-　本一覧</t>
@@ -58,7 +61,13 @@
     <t>012　-　請求先と支払い削除</t>
   </si>
   <si>
-    <t>001 - テストケース番号</t>
+    <t>013　-　ログイン</t>
+  </si>
+  <si>
+    <t>014　-　アカウント登録</t>
+  </si>
+  <si>
+    <t>015　-　プロフィール</t>
   </si>
   <si>
     <t>01_001_001 -&gt; 管理者　本一覧　テストケース1番</t>
@@ -72,75 +81,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -154,6 +103,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -163,68 +188,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,127 +248,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,55 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,36 +443,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,17 +487,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +507,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -533,148 +542,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,10 +1008,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:B26"/>
+  <dimension ref="B3:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1017,8 +1026,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1077,19 +1086,34 @@
         <v>13</v>
       </c>
     </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/04_テスト/01_単体テスト/Frontend/テストケース番号作成方法.xlsx
+++ b/documentation/04_テスト/01_単体テスト/Frontend/テストケース番号作成方法.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>01　-　管理者</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>015　-　プロフィール</t>
+  </si>
+  <si>
+    <t>016　-　ショッピングカート</t>
   </si>
   <si>
     <t>01_001_001 -&gt; 管理者　本一覧　テストケース1番</t>
@@ -81,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -95,6 +98,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -110,6 +150,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,44 +191,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -163,9 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,54 +221,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,25 +251,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,157 +389,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,21 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,6 +456,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,9 +492,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,32 +536,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -542,15 +545,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,130 +563,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,10 +1011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:B27"/>
+  <dimension ref="B3:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1106,14 +1109,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/04_テスト/01_単体テスト/Frontend/テストケース番号作成方法.xlsx
+++ b/documentation/04_テスト/01_単体テスト/Frontend/テストケース番号作成方法.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>01　-　管理者</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>016　-　ショッピングカート</t>
+  </si>
+  <si>
+    <t>017　-　ユーザー</t>
+  </si>
+  <si>
+    <t>018　-　チェックアウト</t>
   </si>
   <si>
     <t>01_001_001 -&gt; 管理者　本一覧　テストケース1番</t>
@@ -84,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,6 +104,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -106,30 +166,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,21 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -166,77 +198,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,79 +257,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,103 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,32 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,19 +477,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -525,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,18 +533,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,130 +569,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,10 +1017,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:B28"/>
+  <dimension ref="B3:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1114,14 +1120,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
